--- a/data/hkFile.xlsx
+++ b/data/hkFile.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58A9A3D-CAA3-B348-9306-7BDC3F75E011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC293FCF-F65F-DC44-8B8F-1CFA836A37FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15620" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{AB60050E-50A3-EB4C-B6C0-5BDD6891869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -639,10 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48401093-B560-664A-87F3-254F9C17AF83}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -667,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -680,7 +684,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -693,7 +697,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -706,7 +710,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -732,7 +736,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
@@ -745,7 +749,7 @@
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
@@ -758,7 +762,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -771,7 +775,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -784,7 +788,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
@@ -797,7 +801,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
@@ -810,7 +814,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -823,7 +827,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -836,7 +840,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -849,7 +853,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -884,6 +888,13 @@
       <c r="E19" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E16" xr:uid="{48401093-B560-664A-87F3-254F9C17AF83}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TAC11179670"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/hkFile.xlsx
+++ b/data/hkFile.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC293FCF-F65F-DC44-8B8F-1CFA836A37FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A4EBB-8985-9342-B876-B74958E9B890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{AB60050E-50A3-EB4C-B6C0-5BDD6891869F}"/>
+    <workbookView xWindow="15620" yWindow="-21100" windowWidth="19200" windowHeight="19580" activeTab="1" xr2:uid="{AB60050E-50A3-EB4C-B6C0-5BDD6891869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$16</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>Item Number</t>
   </si>
@@ -126,6 +127,21 @@
   </si>
   <si>
     <t>Bio Acetate#ELBMO3153 165x1450x4.0/1.3</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>no remarks</t>
+  </si>
+  <si>
+    <t>b/c max later than date</t>
+  </si>
+  <si>
+    <t>remarks</t>
   </si>
 </sst>
 </file>
@@ -237,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -271,11 +287,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -327,6 +352,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,11 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48401093-B560-664A-87F3-254F9C17AF83}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="167" zoomScaleNormal="135" workbookViewId="0">
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -671,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -684,7 +711,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" hidden="1">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -697,7 +724,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -710,7 +737,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" hidden="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -736,7 +763,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" hidden="1">
+    <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
@@ -749,7 +776,7 @@
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" hidden="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
@@ -762,7 +789,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" hidden="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -775,7 +802,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" hidden="1">
+    <row r="10" spans="1:5">
       <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
@@ -788,7 +815,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" hidden="1">
+    <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
@@ -801,7 +828,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" hidden="1">
+    <row r="12" spans="1:5">
       <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
@@ -814,7 +841,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" hidden="1">
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -827,7 +854,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" hidden="1">
+    <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -840,7 +867,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" hidden="1">
+    <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -853,7 +880,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" hidden="1">
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -888,13 +915,292 @@
       <c r="E19" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16" xr:uid="{48401093-B560-664A-87F3-254F9C17AF83}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="TAC11179670"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E16" xr:uid="{48401093-B560-664A-87F3-254F9C17AF83}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DCB17D-FCA7-B541-9452-D64586BB4A00}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7.02</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15.28</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12">
+        <v>15.6</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="9">
+        <v>30.6</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/hkFile.xlsx
+++ b/data/hkFile.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A4EBB-8985-9342-B876-B74958E9B890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DD01B5-7BB4-4440-9398-26FAEA4825B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="-21100" windowWidth="19200" windowHeight="19580" activeTab="1" xr2:uid="{AB60050E-50A3-EB4C-B6C0-5BDD6891869F}"/>
+    <workbookView xWindow="15620" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{AB60050E-50A3-EB4C-B6C0-5BDD6891869F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="original" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="my shot" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'my shot'!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">original!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="35">
   <si>
     <t>Item Number</t>
   </si>
@@ -142,6 +147,9 @@
   </si>
   <si>
     <t>remarks</t>
+  </si>
+  <si>
+    <t>beforeQty(actualQty, kg)</t>
   </si>
 </sst>
 </file>
@@ -669,11 +677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48401093-B560-664A-87F3-254F9C17AF83}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA89FC2-1253-C54D-9EE0-D7F2BD6AC855}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="167" zoomScaleNormal="135" workbookViewId="0">
-      <selection sqref="A1:E16"/>
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -764,40 +772,40 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="12">
-        <v>15.6</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6">
-        <v>1.2</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
+      <c r="A9" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6">
-        <v>2.6</v>
+        <v>37.9</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -810,129 +818,363 @@
         <v>20</v>
       </c>
       <c r="C10" s="6">
-        <v>36.299999999999997</v>
+        <v>1.9</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15" t="s">
-        <v>19</v>
+      <c r="A11" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
-        <v>37.9</v>
+        <v>2.6</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9">
+        <v>30.6</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6">
-        <v>2.6</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9">
-        <v>30.6</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6">
-        <v>27</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="2"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16" xr:uid="{48401093-B560-664A-87F3-254F9C17AF83}"/>
+  <autoFilter ref="A1:E14" xr:uid="{48401093-B560-664A-87F3-254F9C17AF83}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DCB17D-FCA7-B541-9452-D64586BB4A00}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48401093-B560-664A-87F3-254F9C17AF83}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="167" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>31.9</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>22.3</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E6" xr:uid="{48401093-B560-664A-87F3-254F9C17AF83}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472BD621-788D-7949-8F01-C0DDCEA1F73D}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="167" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" hidden="1">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" hidden="1">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
+        <v>22.3</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" hidden="1">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E7" xr:uid="{48401093-B560-664A-87F3-254F9C17AF83}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TAC00070840"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DCB17D-FCA7-B541-9452-D64586BB4A00}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1201,6 +1443,8 @@
       <c r="E18" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F18" xr:uid="{B1DCB17D-FCA7-B541-9452-D64586BB4A00}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/hkFile.xlsx
+++ b/data/hkFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DD01B5-7BB4-4440-9398-26FAEA4825B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178E775-EBA1-E843-83ED-5C7D493CC2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{AB60050E-50A3-EB4C-B6C0-5BDD6891869F}"/>
+    <workbookView xWindow="16760" yWindow="-20840" windowWidth="17920" windowHeight="20460" xr2:uid="{AB60050E-50A3-EB4C-B6C0-5BDD6891869F}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="4" r:id="rId1"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA89FC2-1253-C54D-9EE0-D7F2BD6AC855}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/hkFile.xlsx
+++ b/data/hkFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178E775-EBA1-E843-83ED-5C7D493CC2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88A42BA-8263-0E41-9AE7-6919C7C9DA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16760" yWindow="-20840" windowWidth="17920" windowHeight="20460" xr2:uid="{AB60050E-50A3-EB4C-B6C0-5BDD6891869F}"/>
+    <workbookView xWindow="15620" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{AB60050E-50A3-EB4C-B6C0-5BDD6891869F}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="4" r:id="rId1"/>
@@ -681,7 +681,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
